--- a/data/books_and_members.xlsx
+++ b/data/books_and_members.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -553,6 +553,28 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3432</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -564,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -587,6 +609,30 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4543256</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Travis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>434534245</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
